--- a/src/private/templates/supplier_detail.xlsx
+++ b/src/private/templates/supplier_detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="EOI shortlisting - by OT" sheetId="4" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>COMPANY INFORMATION</t>
-  </si>
-  <si>
-    <t>SAP number</t>
   </si>
   <si>
     <t>Name</t>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Parent company or any sub-contractor is registered in any of the following countries to which international trade sanctions apply</t>
+  </si>
+  <si>
+    <t>Vendor number</t>
   </si>
 </sst>
 </file>
@@ -552,17 +552,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Calculated" xfId="1"/>
@@ -1536,97 +1536,97 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" zoomScalePageLayoutView="215" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="89.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="89.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
+    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
+      <c r="A16" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
